--- a/combine_effort/3. 24-oct-2021 to predict 31-oct 2021/files/auto-correlation1.xlsx
+++ b/combine_effort/3. 24-oct-2021 to predict 31-oct 2021/files/auto-correlation1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\combine_effort\3. 24-oct-2021 to predict 31-oct 2021\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDDEA2-12ED-4D28-BF35-440299C970C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC8563C-45CC-4E49-91AE-1384483DBE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pips calculation" sheetId="28" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,8 +858,8 @@
         <v>1072.9999999999932</v>
       </c>
       <c r="M9">
-        <f>K9</f>
-        <v>1072.9999999999932</v>
+        <f>K9*-1</f>
+        <v>-1072.9999999999932</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M32">
         <f>SUM(M3:M31)</f>
-        <v>-7598.0000000000255</v>
+        <v>-9744.0000000000127</v>
       </c>
       <c r="O32">
         <f>SUM(O3:O31)</f>
